--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Client\Steel Warehouse\Form templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Client\Flexsys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
-    <sheet name="Comments" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Location</t>
   </si>
@@ -52,20 +51,17 @@
     <t>Tenure</t>
   </si>
   <si>
-    <t>Compensation</t>
-  </si>
-  <si>
-    <t>FLSA Classification</t>
-  </si>
-  <si>
     <t>Physical Delivery Office Name</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -78,21 +74,32 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -125,6 +132,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,28 +416,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" customWidth="1"/>
-    <col min="12" max="12" width="21.26953125" customWidth="1"/>
-    <col min="13" max="13" width="28.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,23 +463,20 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -479,31 +485,282 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010040369A517B43264FA806E05D437F7708" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a92c15a4199d53bcc2ab017e40748859">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="76550076-043e-4776-8a0c-6d142f706e77" xmlns:ns4="c825786c-23ec-452c-9c97-d11a4b021292" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e7d9a634027cccf9082a689dc9b5765" ns3:_="" ns4:_="">
+    <xsd:import namespace="76550076-043e-4776-8a0c-6d142f706e77"/>
+    <xsd:import namespace="c825786c-23ec-452c-9c97-d11a4b021292"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="76550076-043e-4776-8a0c-6d142f706e77" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c825786c-23ec-452c-9c97-d11a4b021292" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD6B578C-FD87-432B-92C5-42BAA73FAE3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="76550076-043e-4776-8a0c-6d142f706e77"/>
+    <ds:schemaRef ds:uri="c825786c-23ec-452c-9c97-d11a4b021292"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDF714D3-A093-4117-A7C4-86E820227254}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="76550076-043e-4776-8a0c-6d142f706e77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c825786c-23ec-452c-9c97-d11a4b021292"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DBA71EF-B090-483A-AE59-201DFD37AAFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>